--- a/reactive/throughput-full-adaptive.xlsx
+++ b/reactive/throughput-full-adaptive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645982B-7E88-4BC8-9127-A80320765540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6533C38-1C6D-442B-B5B2-643B5EC1672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="29844" windowHeight="14256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="732" windowWidth="36312" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -10516,6 +10516,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>